--- a/outputs/Bettle/gridsearch_results/gridsearch_K-Neighbors_results.xlsx
+++ b/outputs/Bettle/gridsearch_results/gridsearch_K-Neighbors_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,25 +478,170 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PowerTransformer</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'classifier__algorithm': 'auto', 'classifier__leaf_size': 10, 'classifier__metric': 'minkowski', 'classifier__metric_params': None, 'classifier__n_neighbors': 2, 'classifier__p': 1, 'classifier__weights': 'distance', 'scaler': PowerTransformer(standardize=False)}</t>
+          <t>{'classifier__algorithm': 'auto', 'classifier__leaf_size': 10, 'classifier__metric': 'minkowski', 'classifier__metric_params': None, 'classifier__n_neighbors': 2, 'classifier__p': 2, 'classifier__weights': 'distance', 'scaler': None}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.9788854381999832</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.04222912360003366</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>K-Neighbors</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MinMaxScaler</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{'classifier__algorithm': 'auto', 'classifier__leaf_size': 10, 'classifier__metric': 'minkowski', 'classifier__metric_params': None, 'classifier__n_neighbors': 3, 'classifier__p': 1, 'classifier__weights': 'uniform', 'scaler': MinMaxScaler()}</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9788854381999832</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.04222912360003366</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>K-Neighbors</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>RobustScaler</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'classifier__algorithm': 'auto', 'classifier__leaf_size': 10, 'classifier__metric': 'minkowski', 'classifier__metric_params': None, 'classifier__n_neighbors': 2, 'classifier__p': 1, 'classifier__weights': 'uniform', 'scaler': RobustScaler()}</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9788854381999832</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.04222912360003366</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>K-Neighbors</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>{'classifier__algorithm': 'auto', 'classifier__leaf_size': 10, 'classifier__metric': 'minkowski', 'classifier__metric_params': None, 'classifier__n_neighbors': 3, 'classifier__p': 1, 'classifier__weights': 'uniform', 'scaler': StandardScaler()}</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9577708763999663</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.05171990255250274</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9898717737923585</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.01240449310410277</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>K-Neighbors</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>QuantileTransformer</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{'classifier__algorithm': 'auto', 'classifier__leaf_size': 10, 'classifier__metric': 'minkowski', 'classifier__metric_params': None, 'classifier__n_neighbors': 2, 'classifier__p': 1, 'classifier__weights': 'uniform', 'scaler': QuantileTransformer(output_distribution='normal')}</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>K-Neighbors</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>PowerTransformer</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>{'classifier__algorithm': 'auto', 'classifier__leaf_size': 10, 'classifier__metric': 'minkowski', 'classifier__metric_params': None, 'classifier__n_neighbors': 2, 'classifier__p': 1, 'classifier__weights': 'uniform', 'scaler': PowerTransformer(standardize=False)}</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9914854215512676</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.01702915689746476</v>
       </c>
     </row>
   </sheetData>
